--- a/ExcelFiles/Buff.xlsx
+++ b/ExcelFiles/Buff.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>int</t>
   </si>
@@ -79,6 +79,9 @@
     <t>mainColor</t>
   </si>
   <si>
+    <t>performData</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>495CFF</t>
+  </si>
+  <si>
+    <t>ghostShadow:0.2:6786FB</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1044,9 +1050,11 @@
     <col min="9" max="9" width="12.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="22.8888888888889" customWidth="1"/>
     <col min="12" max="12" width="15.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
+    <col min="14" max="14" width="26.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,8 +1094,11 @@
       <c r="M1" t="s">
         <v>1</v>
       </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1127,19 +1138,22 @@
       <c r="M2" t="s">
         <v>15</v>
       </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>1e-5</v>
@@ -1157,16 +1171,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/Buff.xlsx
+++ b/ExcelFiles/Buff.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>int</t>
   </si>
@@ -76,9 +76,6 @@
     <t>buffEffectName</t>
   </si>
   <si>
-    <t>mainColor</t>
-  </si>
-  <si>
     <t>performData</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>alpha_blueBall</t>
-  </si>
-  <si>
-    <t>495CFF</t>
   </si>
   <si>
     <t>ghostShadow:0.2:6786FB</t>
@@ -1034,10 +1028,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1050,11 +1044,10 @@
     <col min="9" max="9" width="12.3333333333333" customWidth="1"/>
     <col min="11" max="11" width="22.8888888888889" customWidth="1"/>
     <col min="12" max="12" width="15.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="10.5555555555556" customWidth="1"/>
-    <col min="14" max="14" width="26.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="26.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,11 +1087,8 @@
       <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1138,22 +1128,19 @@
       <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>1e-5</v>
@@ -1174,16 +1161,13 @@
         <v>1000</v>
       </c>
       <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
